--- a/results/I2_N10_T30_C400_0_P6_res.xlsx
+++ b/results/I2_N10_T30_C400_0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>331.8870074779537</v>
+        <v>441.4078650152845</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.0130000114440918</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.97700747795366</v>
+        <v>45.77786501528455</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>288.91</v>
+        <v>395.63</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.60033324079215</v>
+        <v>22.61068956408072</v>
       </c>
     </row>
     <row r="4">
@@ -992,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1032,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>23.22876137241512</v>
       </c>
     </row>
     <row r="10">
@@ -1048,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.14711948224307</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1056,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.55068636700489</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1064,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.21630137166173</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -1072,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.65547625200509</v>
+        <v>25.21630137166173</v>
       </c>
     </row>
     <row r="15">
@@ -1080,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>28.21630585843227</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>322.3800000000014</v>
+        <v>297.2549999999998</v>
       </c>
     </row>
     <row r="8">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>340.7050000000013</v>
+        <v>314.6649999999998</v>
       </c>
     </row>
     <row r="9">
@@ -1245,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>327.45</v>
+        <v>311.2049999999998</v>
       </c>
     </row>
     <row r="10">
@@ -1256,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>345.4950000000014</v>
+        <v>316.3799999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1267,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>330.4650000000014</v>
+        <v>301.5249999999997</v>
       </c>
     </row>
     <row r="12">
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>81.47500000000072</v>
+        <v>67.77500000000072</v>
       </c>
     </row>
     <row r="13">
@@ -1289,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>80.68000000000072</v>
+        <v>73.77000000000072</v>
       </c>
     </row>
     <row r="14">
@@ -1300,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>84.71500000000073</v>
+        <v>74.03500000000074</v>
       </c>
     </row>
     <row r="15">
@@ -1311,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>80.43500000000073</v>
+        <v>73.04500000000073</v>
       </c>
     </row>
     <row r="16">
@@ -1322,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>87.34500000000074</v>
+        <v>72.66500000000073</v>
       </c>
     </row>
     <row r="17">
@@ -1421,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>136.5699999999997</v>
+        <v>136.5699999999998</v>
       </c>
     </row>
     <row r="26">
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>212.4350000000006</v>
+        <v>236.3350000000021</v>
       </c>
     </row>
     <row r="38">
@@ -1564,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>223.1150000000005</v>
+        <v>246.4550000000021</v>
       </c>
     </row>
     <row r="39">
@@ -1575,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>214.1800000000005</v>
+        <v>231.7250000000021</v>
       </c>
     </row>
     <row r="40">
@@ -1586,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>226.3400000000006</v>
+        <v>253.5450000000021</v>
       </c>
     </row>
     <row r="41">
@@ -1597,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>214.6600000000006</v>
+        <v>239.25</v>
       </c>
     </row>
     <row r="42">
@@ -1663,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>166.9600000000012</v>
+        <v>153.2600000000012</v>
       </c>
     </row>
     <row r="48">
@@ -1674,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>168.6450000000012</v>
+        <v>161.7350000000012</v>
       </c>
     </row>
     <row r="49">
@@ -1685,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>164.4300000000012</v>
+        <v>153.75</v>
       </c>
     </row>
     <row r="50">
@@ -1696,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>171.1650000000012</v>
+        <v>163.7750000000012</v>
       </c>
     </row>
     <row r="51">
@@ -1707,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>172.0750000000012</v>
+        <v>157.3950000000012</v>
       </c>
     </row>
     <row r="52">
@@ -1718,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>224.9100000000005</v>
+        <v>187.309999999999</v>
       </c>
     </row>
     <row r="53">
@@ -1729,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>227.3250000000005</v>
+        <v>197.074999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1740,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>226.1600000000005</v>
+        <v>197.934999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1751,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>231.8200000000005</v>
+        <v>197.2249999999991</v>
       </c>
     </row>
     <row r="56">
@@ -1762,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>224.9900000000005</v>
+        <v>185.719999999999</v>
       </c>
     </row>
     <row r="57">
@@ -1773,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>212.0549999999987</v>
+        <v>297.2549999999998</v>
       </c>
     </row>
     <row r="58">
@@ -1784,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>215.8299999999987</v>
+        <v>314.6649999999998</v>
       </c>
     </row>
     <row r="59">
@@ -1795,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>177.0399999999987</v>
+        <v>311.2049999999998</v>
       </c>
     </row>
     <row r="60">
@@ -1806,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>198</v>
+        <v>316.3799999999999</v>
       </c>
     </row>
     <row r="61">
@@ -1817,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>184.7</v>
+        <v>301.5249999999997</v>
       </c>
     </row>
     <row r="62">
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>224.9100000000005</v>
+        <v>212.0549999999987</v>
       </c>
     </row>
     <row r="63">
@@ -1839,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>227.3250000000005</v>
+        <v>215.8299999999987</v>
       </c>
     </row>
     <row r="64">
@@ -1850,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>226.1600000000005</v>
+        <v>177.0399999999987</v>
       </c>
     </row>
     <row r="65">
@@ -1861,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>231.8200000000005</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66">
@@ -1872,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>224.9900000000005</v>
+        <v>184.7</v>
       </c>
     </row>
     <row r="67">
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>322.3800000000014</v>
+        <v>236.3350000000021</v>
       </c>
     </row>
     <row r="68">
@@ -1894,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>340.7050000000013</v>
+        <v>246.4550000000021</v>
       </c>
     </row>
     <row r="69">
@@ -1905,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>327.45</v>
+        <v>231.7250000000021</v>
       </c>
     </row>
     <row r="70">
@@ -1916,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>345.4950000000014</v>
+        <v>253.5450000000021</v>
       </c>
     </row>
     <row r="71">
@@ -1927,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>330.4650000000014</v>
+        <v>239.25</v>
       </c>
     </row>
   </sheetData>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="8">
@@ -2241,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="9">
@@ -2252,7 +2252,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="10">
@@ -2263,7 +2263,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="11">
@@ -2274,7 +2274,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="12">
